--- a/documents/Clubs-data.xlsx
+++ b/documents/Clubs-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIVANSH TIWARI\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{586E864A-9E94-44BE-AC6F-15C5DEBF5EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B59E8E-86DF-40E1-986B-186BB30C9362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{5A0A765C-3B6F-47F6-8828-F2CFBAEAE092}"/>
   </bookViews>
@@ -126,12 +126,6 @@
     <t>deepa.e9647@cumail.in</t>
   </si>
   <si>
-    <t>Shubam [3rd year]</t>
-  </si>
-  <si>
-    <t>Srijan Kumar [3rd year]</t>
-  </si>
-  <si>
     <t>UIE</t>
   </si>
   <si>
@@ -273,9 +267,6 @@
     <t>Aman Kumar</t>
   </si>
   <si>
-    <t>Askhit Gautam</t>
-  </si>
-  <si>
     <t>Apex Institute of Technology(AIT)</t>
   </si>
   <si>
@@ -351,9 +342,6 @@
     <t>Sugandha.cse@cumail.in</t>
   </si>
   <si>
-    <t>Nyasha</t>
-  </si>
-  <si>
     <t>Kabir</t>
   </si>
   <si>
@@ -391,6 +379,18 @@
   </si>
   <si>
     <t>renu.e13931@cumail.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srijan Kumar </t>
+  </si>
+  <si>
+    <t>Akshit Gautam</t>
+  </si>
+  <si>
+    <t>Kunal</t>
   </si>
 </sst>
 </file>
@@ -841,7 +841,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H21"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -950,7 +950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -970,10 +970,10 @@
         <v>29</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -984,22 +984,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1010,22 +1010,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="H7" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1036,22 +1036,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1062,22 +1062,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="G9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="H9" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1091,19 +1091,19 @@
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="G10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="H10" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1114,22 +1114,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="H11" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1143,19 +1143,19 @@
         <v>15</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="G12" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="H12" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1166,22 +1166,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="G13" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="H13" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1192,22 +1192,22 @@
         <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="G14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="H14" s="9" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
@@ -1218,22 +1218,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="G15" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="H15" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1241,25 +1241,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="F16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="G16" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="H16" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1267,25 +1267,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="F17" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="G17" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="H17" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1293,25 +1293,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="F18" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="G18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1322,16 +1322,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1341,25 +1341,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1367,19 +1367,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
